--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA261E-734F-8640-B7D3-9D4FF411683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468C65E-CA6B-0E48-B367-D8685845FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,7 +365,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoryScript</t>
+    <t>Q1C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastX2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -776,10 +792,11 @@
     <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:16" ht="17">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -816,8 +833,20 @@
       <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17">
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
@@ -831,65 +860,193 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
+    <row r="3" spans="1:16" ht="34">
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="34">
+      <c r="M3" s="1" t="str">
+        <f>IF(E2&lt;&gt;"",E2,M2)</f>
+        <v>Forest</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>IF(F2&lt;&gt;"",F2,N2)</f>
+        <v>Happy</v>
+      </c>
+      <c r="O3" s="1">
+        <f>IF(H2&lt;&gt;"",H2,O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f>IF(K2&lt;&gt;"",K2,P2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="34">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="17">
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M46" si="0">IF(E3&lt;&gt;"",E3,M3)</f>
+        <v>Forest</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N46" si="1">IF(F3&lt;&gt;"",F3,N3)</f>
+        <v>Happy</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O46" si="2">IF(H3&lt;&gt;"",H3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P46" si="3">IF(K3&lt;&gt;"",K3,P3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17">
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17">
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="34">
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="17">
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="34">
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="34">
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="17">
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -902,16 +1059,48 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="34">
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="34">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="17">
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -924,8 +1113,24 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="17">
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17">
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
@@ -935,8 +1140,24 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="17">
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -958,8 +1179,24 @@
       <c r="I15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="17">
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1209,27 @@
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -995,8 +1251,24 @@
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="34">
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="34">
       <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1006,8 +1278,27 @@
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17">
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17">
       <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1026,31 +1317,123 @@
       <c r="I19" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17">
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17">
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="34">
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="34">
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17">
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17">
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="34">
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="34">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="34">
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="34">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1060,8 +1443,27 @@
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="34">
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="34">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1077,13 +1479,48 @@
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="17">
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="17">
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1539,27 @@
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="17">
+      <c r="I27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -1116,8 +1572,24 @@
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="17">
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1611,24 @@
       <c r="I29" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="17">
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +1641,27 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="17">
+      <c r="I30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1170,8 +1677,27 @@
       <c r="G31" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="34">
+      <c r="I31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="34">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1184,8 +1710,24 @@
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="17">
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17">
       <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
@@ -1195,29 +1737,93 @@
       <c r="E33" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17">
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17">
       <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="17">
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sky</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17">
       <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17">
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sky</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="17">
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sky</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -1242,8 +1848,24 @@
       <c r="I37" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="17">
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sky</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1256,8 +1878,27 @@
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="17">
+      <c r="I38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -1273,16 +1914,51 @@
       <c r="G39" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="17">
+      <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17">
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="34">
+      <c r="M40" s="1" t="str">
+        <f>IF(E39&lt;&gt;"",E39,M39)</f>
+        <v>Forest</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="34">
       <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1295,16 +1971,48 @@
       <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="34">
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="34">
       <c r="B42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="17">
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17">
       <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
@@ -1326,16 +2034,51 @@
       <c r="I43" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="34">
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="34">
       <c r="B44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="17">
+      <c r="I44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +2094,27 @@
       <c r="G45" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="17">
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
@@ -1365,8 +2127,24 @@
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="17">
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468C65E-CA6B-0E48-B367-D8685845FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634C762-58C8-2743-9332-1D0A883C54C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The first is "Reflected Falls."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A waterfall plunges straight down near the manor, its spray shimmering as it meets the water below, like light and shadow flickering into view.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +378,10 @@
   </si>
   <si>
     <t>LastX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first is &lt;i&gt;&lt;color=#D93025&gt;Reflected Falls&lt;/color&gt;&lt;/i&gt;.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -834,21 +834,21 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -857,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -934,7 +934,7 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="7" spans="1:16" ht="34">
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -979,7 +979,7 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="18" spans="1:16" ht="34">
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="19" spans="1:16" ht="17">
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="20" spans="1:16" ht="17">
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="21" spans="1:16" ht="34">
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="22" spans="1:16" ht="17">
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>23</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="23" spans="1:16" ht="34">
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>23</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="24" spans="1:16" ht="34">
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="25" spans="1:16" ht="34">
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="26" spans="1:16" ht="17">
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>4</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
@@ -1609,7 +1609,7 @@
         <v>-1000</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>25</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="33" spans="1:16" ht="17">
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="34" spans="1:16" ht="17">
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="35" spans="1:16" ht="17">
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="36" spans="1:16" ht="17">
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
@@ -1912,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>23</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="40" spans="1:16" ht="17">
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="41" spans="1:16" ht="34">
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
@@ -1969,7 +1969,7 @@
         <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="42" spans="1:16" ht="34">
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="44" spans="1:16" ht="34">
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -2149,16 +2149,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634C762-58C8-2743-9332-1D0A883C54C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63887F72-547A-EA4F-8532-3F03872772D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63887F72-547A-EA4F-8532-3F03872772D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB6E3B-4DB4-4D47-BBE6-4D04E0AE9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +290,6 @@
   </si>
   <si>
     <t>Yao-Speechless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterfall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -774,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -834,21 +830,21 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -934,7 +930,7 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -1270,7 +1266,7 @@
     </row>
     <row r="18" spans="1:16" ht="34">
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -1300,7 +1296,7 @@
     </row>
     <row r="19" spans="1:16" ht="17">
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1387,7 +1383,7 @@
     </row>
     <row r="22" spans="1:16" ht="17">
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>23</v>
@@ -1411,7 +1407,7 @@
     </row>
     <row r="23" spans="1:16" ht="34">
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>23</v>
@@ -1465,7 +1461,7 @@
     </row>
     <row r="25" spans="1:16" ht="34">
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -1912,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>23</v>
@@ -1960,7 +1956,7 @@
     </row>
     <row r="41" spans="1:16" ht="34">
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
@@ -1968,9 +1964,6 @@
       <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1990,7 +1983,7 @@
     </row>
     <row r="42" spans="1:16" ht="34">
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
@@ -2001,7 +1994,7 @@
       </c>
       <c r="N42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="2"/>
@@ -2017,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -2040,7 +2033,7 @@
       </c>
       <c r="N43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="2"/>
@@ -2053,7 +2046,7 @@
     </row>
     <row r="44" spans="1:16" ht="34">
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
@@ -2067,7 +2060,7 @@
       </c>
       <c r="N44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="2"/>
@@ -2083,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -2103,7 +2096,7 @@
       </c>
       <c r="N45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="2"/>
@@ -2119,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -2133,7 +2126,7 @@
       </c>
       <c r="N46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="2"/>
@@ -2149,16 +2142,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB6E3B-4DB4-4D47-BBE6-4D04E0AE9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16E229-6AF3-4541-8DCD-2C9098E72997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>The first is &lt;i&gt;&lt;color=#D93025&gt;Reflected Falls&lt;/color&gt;&lt;/i&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackMask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,10 +801,12 @@
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:18" ht="17">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -841,8 +855,14 @@
       <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17">
+      <c r="Q1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17">
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
@@ -856,7 +876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="34">
+    <row r="3" spans="1:18" ht="34">
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -880,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34">
+    <row r="4" spans="1:18" ht="34">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -904,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17">
+    <row r="5" spans="1:18" ht="17">
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
@@ -928,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17">
+    <row r="6" spans="1:18" ht="17">
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
@@ -952,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="34">
+    <row r="7" spans="1:18" ht="34">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
@@ -973,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17">
+    <row r="8" spans="1:18" ht="17">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -997,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="34">
+    <row r="9" spans="1:18" ht="34">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="34">
+    <row r="10" spans="1:18" ht="34">
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1041,8 +1061,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="17">
+      <c r="Q10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="34">
+    <row r="12" spans="1:18" ht="34">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1096,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17">
+    <row r="13" spans="1:18" ht="17">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17">
+    <row r="14" spans="1:18" ht="17">
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1152,8 +1178,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="17">
+      <c r="R14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17">
+    <row r="16" spans="1:18" ht="17">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16E229-6AF3-4541-8DCD-2C9098E72997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA34A82-98FA-B842-A9D5-07D9B47D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -385,11 +385,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlackMask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HistoryAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +783,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -859,7 +859,7 @@
         <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>18</v>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA34A82-98FA-B842-A9D5-07D9B47D8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00DAB49-D18E-8F48-AEF3-7CCD061717E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00DAB49-D18E-8F48-AEF3-7CCD061717E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3659303-0708-224F-867B-298B33F90135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="28800" windowHeight="16080" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,50 +157,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It is a grand compound nestled in the upper reaches of the Gong River, embraced by towering slopes and cliffs. Locals simply call it Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Though sparsely populated, the upper Gong River is famed far and wide for its breathtaking mountain views.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Among its most celebrated sights are three scenic wonders—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A waterfall plunges straight down near the manor, its spray shimmering as it meets the water below, like light and shadow flickering into view.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The second is "Spring Songs in the Forked Valley."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where the mountain path splits, birdsong echoes through the ravine. It's a treasured spot for listening to the chorus of spring.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>So really, how could we pass through Gongjiang County and not pay a visit to the famed Qingliu Manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sir, wait a moment…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I had been quietly listening this whole time, but now that the story seemed to be ending, I couldn’t help but interject.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weren’t there supposed to be three famous sights? You only mentioned two…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>What’s the last one?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Three named, two listed—that’s just one of those unwritten rules, isn’t it?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>On the way to his new post, Master proposed a detour to the Gong River to take in the famed lakes and mountains along the way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yao Chong, at your service.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sir, how much farther is Qingliu Manor? It feels like we’ve been walking forever…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,26 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He always sounds so confident. I sigh and lift my head—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Through the thick foliage above, I glimpse a sliver of gray sky.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My skin and nose tell me the mountain air is so humid it might wring water if squeezed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Looks like a storm is coming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I push aside the branches ahead of us, half in doubt. And see…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We’ve arrived.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,14 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Before traveling to court, he served at the Court of Judicature and Revision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where he handled criminal cases with absolute fairness—over seventeen thousand verdicts in a single year, and not a single wrongful conviction.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Happy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,51 +221,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>That’s how Sir is. After all these years traveling with him, I’m fairly certain he just forgot what the third one was.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Sir’s name is Judge Dee.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A few weeks ago, he offended Wu Sansi, the emperor’s favored consort's nephew, and was demoted to serve as magistrate of Pengyang County.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">But alas, Sir is upright and uncompromising. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And I—
-I'm his student and bodyguard.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Riverworks Estate of Gongjiang County.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A worn wooden suspension bridge, swaying gently, stretching across a vast chasm—linking two cliffs some dozens of meters apart.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q1C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Just beyond the suspension bridge, a mighty waterfall thundered down the cliffside, its roaring waters deafening to the ear.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I told you not to worry. Once we cross this bridge, we’ll be at Qingliu Manor.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I followed Master’s finger, and only then did I spot the faint outline of the manor walls, barely visible in the distant mist.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why would they build the Riverworks Estate so high up the mountain?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The first is &lt;i&gt;&lt;color=#D93025&gt;Reflected Falls&lt;/color&gt;&lt;/i&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>History</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +277,119 @@
   </si>
   <si>
     <t>History1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The Riverworks Estate of Gongjiang County.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It is a grand compound nestled in the upper reaches of the Gong River, embraced by towering slopes and cliffs. Locals simply call it Qingliu Manor.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Though sparsely populated, the upper Gong River is famed far and wide for its breathtaking mountain views.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Among its most celebrated sights are three scenic wonders—)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The first is &lt;i&gt;&lt;color=#D93025&gt;Reflected Falls&lt;/color&gt;&lt;/i&gt;.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A waterfall plunges straight down near the manor, its spray shimmering as it meets the water below, like light and shadow flickering into view.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The second is "Spring Songs in the Forked Valley.")&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Where the mountain path splits, birdsong echoes through the ravine. It's a treasured spot for listening to the chorus of spring.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So really, how could we pass through Gongjiang County and not pay a visit to the famed Qingliu Manor?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I had been quietly listening this whole time, but now that the story seemed to be ending, I couldn’t help but interject.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(What’s the last one?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(That’s how Sir is. After all these years traveling with him, I’m fairly certain he just forgot what the third one was.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My Sir’s name is Judge Dee.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Before traveling to court, he served at the Court of Judicature and Revision)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Where he handled criminal cases with absolute fairness—over seventeen thousand verdicts in a single year, and not a single wrongful conviction.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(But alas, Sir is upright and uncompromising. )&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A few weeks ago, he offended Wu Sansi, the emperor’s favored consort's nephew, and was demoted to serve as magistrate of Pengyang County.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(On the way to his new post, Master proposed a detour to the Gong River to take in the famed lakes and mountains along the way.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And I—
+I'm his student and bodyguard.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao Chong, at your service.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He always sounds so confident. I sigh and lift my head—)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Through the thick foliage above, I glimpse a sliver of gray sky.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My skin and nose tell me the mountain air is so humid it might wring water if squeezed.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Looks like a storm is coming.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I push aside the branches ahead of us, half in doubt. And see…)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A worn wooden suspension bridge, swaying gently, stretching across a vast chasm—linking two cliffs some dozens of meters apart.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just beyond the suspension bridge, a mighty waterfall thundered down the cliffside, its roaring waters deafening to the ear.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I followed Master’s finger, and only then did I spot the faint outline of the manor walls, barely visible in the distant mist.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,12 +414,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -436,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +457,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -799,7 +817,7 @@
     <col min="9" max="9" width="18.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
     <col min="14" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
@@ -844,27 +862,27 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -873,12 +891,12 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="34">
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -902,7 +920,7 @@
     </row>
     <row r="4" spans="1:18" ht="34">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -926,7 +944,7 @@
     </row>
     <row r="5" spans="1:18" ht="17">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -950,7 +968,7 @@
     </row>
     <row r="6" spans="1:18" ht="17">
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -974,7 +992,10 @@
     </row>
     <row r="7" spans="1:18" ht="34">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -995,7 +1016,7 @@
     </row>
     <row r="8" spans="1:18" ht="17">
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1019,7 +1040,10 @@
     </row>
     <row r="9" spans="1:18" ht="34">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1040,10 +1064,10 @@
     </row>
     <row r="10" spans="1:18" ht="34">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1062,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>18</v>
@@ -1073,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1081,6 +1105,15 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3">
+        <v>500</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1100,11 +1133,14 @@
     </row>
     <row r="12" spans="1:18" ht="34">
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1119,7 +1155,7 @@
       </c>
       <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17">
@@ -1127,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1135,6 +1171,9 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1149,12 +1188,12 @@
       </c>
       <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1162,6 +1201,11 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1176,7 +1220,7 @@
       </c>
       <c r="P14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>15</v>
@@ -1187,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1195,13 +1239,13 @@
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="1" t="str">
@@ -1218,7 +1262,7 @@
       </c>
       <c r="P15" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17">
@@ -1226,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1234,9 +1278,9 @@
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1247,11 +1291,11 @@
       </c>
       <c r="O16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="17">
@@ -1259,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1267,15 +1311,9 @@
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1286,26 +1324,25 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="34">
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1316,16 +1353,16 @@
       </c>
       <c r="O18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17">
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1333,13 +1370,13 @@
       <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <v>-500</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="1" t="str">
@@ -1352,23 +1389,23 @@
       </c>
       <c r="O19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="34">
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1383,16 +1420,19 @@
       </c>
       <c r="P20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="34">
       <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1407,16 +1447,19 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17">
       <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1431,16 +1474,19 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="34">
       <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1455,22 +1501,21 @@
       </c>
       <c r="P23" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="34">
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1485,49 +1530,64 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="34">
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Happy</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Black</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Happy</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="2"/>
-        <v>-500</v>
-      </c>
       <c r="P25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17">
       <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1538,7 +1598,7 @@
       </c>
       <c r="O26" s="1">
         <f t="shared" si="2"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="3"/>
@@ -1550,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
@@ -1561,12 +1621,12 @@
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Black</v>
@@ -1577,7 +1637,7 @@
       </c>
       <c r="O27" s="1">
         <f t="shared" si="2"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="3"/>
@@ -1589,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -1597,6 +1657,12 @@
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1607,7 +1673,7 @@
       </c>
       <c r="O28" s="1">
         <f t="shared" si="2"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="3"/>
@@ -1619,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
@@ -1627,15 +1693,12 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1646,7 +1709,7 @@
       </c>
       <c r="O29" s="1">
         <f t="shared" si="2"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="3"/>
@@ -1658,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>25</v>
@@ -1666,9 +1729,12 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1679,7 +1745,7 @@
       </c>
       <c r="O30" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="3"/>
@@ -1691,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1699,12 +1765,12 @@
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1715,7 +1781,7 @@
       </c>
       <c r="O31" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="3"/>
@@ -1727,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1735,6 +1801,12 @@
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1745,7 +1817,7 @@
       </c>
       <c r="O32" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="3"/>
@@ -1754,7 +1826,7 @@
     </row>
     <row r="33" spans="1:16" ht="17">
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
@@ -1762,6 +1834,16 @@
       <c r="E33" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1772,7 +1854,7 @@
       </c>
       <c r="O33" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="3"/>
@@ -1781,7 +1863,10 @@
     </row>
     <row r="34" spans="1:16" ht="17">
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1793,16 +1878,16 @@
       </c>
       <c r="O34" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17">
+    <row r="35" spans="1:16" ht="34">
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -1817,7 +1902,7 @@
       </c>
       <c r="O35" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="3"/>
@@ -1826,7 +1911,7 @@
     </row>
     <row r="36" spans="1:16" ht="17">
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
@@ -1841,7 +1926,7 @@
       </c>
       <c r="O36" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="3"/>
@@ -1853,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -1864,13 +1949,13 @@
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M37" s="1" t="str">
@@ -1883,7 +1968,7 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="3"/>
@@ -1895,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -1903,9 +1988,9 @@
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="M38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Forest</v>
@@ -1916,7 +2001,7 @@
       </c>
       <c r="O38" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="3"/>
@@ -1928,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
@@ -1936,10 +2021,11 @@
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="G39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M39" s="1" t="str">
@@ -1952,7 +2038,7 @@
       </c>
       <c r="O39" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="3"/>
@@ -1961,7 +2047,7 @@
     </row>
     <row r="40" spans="1:16" ht="17">
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
@@ -1976,7 +2062,7 @@
       </c>
       <c r="O40" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="3"/>
@@ -1985,7 +2071,7 @@
     </row>
     <row r="41" spans="1:16" ht="34">
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
@@ -2003,7 +2089,7 @@
       </c>
       <c r="O41" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="3"/>
@@ -2012,7 +2098,7 @@
     </row>
     <row r="42" spans="1:16" ht="34">
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
@@ -2027,7 +2113,7 @@
       </c>
       <c r="O42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="3"/>
@@ -2039,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -2047,13 +2133,13 @@
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M43" s="1" t="str">
@@ -2066,7 +2152,7 @@
       </c>
       <c r="O43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="3"/>
@@ -2075,14 +2161,14 @@
     </row>
     <row r="44" spans="1:16" ht="34">
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="M44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Bridge-Connect</v>
@@ -2093,7 +2179,7 @@
       </c>
       <c r="O44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="3"/>
@@ -2105,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -2113,10 +2199,11 @@
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M45" s="1" t="str">
@@ -2129,7 +2216,7 @@
       </c>
       <c r="O45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="3"/>
@@ -2141,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -2159,7 +2246,7 @@
       </c>
       <c r="O46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="3"/>
@@ -2171,16 +2258,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3659303-0708-224F-867B-298B33F90135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F50FF1-5A21-7E4C-8568-E1EE225C0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="28800" windowHeight="16080" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,14 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(I followed Master’s finger, and only then did I spot the faint outline of the manor walls, barely visible in the distant mist.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaskAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -821,10 +829,12 @@
     <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
     <col min="14" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="12.1640625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -879,8 +889,14 @@
       <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="17">
+      <c r="S1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
@@ -894,7 +910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="34">
+    <row r="3" spans="1:20" ht="34">
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
@@ -918,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="34">
+    <row r="4" spans="1:20" ht="34">
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
@@ -942,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17">
+    <row r="5" spans="1:20" ht="17">
       <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
@@ -966,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17">
+    <row r="6" spans="1:20" ht="17">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34">
+    <row r="7" spans="1:20" ht="34">
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17">
+    <row r="8" spans="1:20" ht="17">
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
@@ -1038,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="34">
+    <row r="9" spans="1:20" ht="34">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="34">
+    <row r="10" spans="1:20" ht="34">
       <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17">
+    <row r="11" spans="1:20" ht="17">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="34">
+    <row r="12" spans="1:20" ht="34">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1174,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17">
+    <row r="13" spans="1:20" ht="17">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17">
+    <row r="14" spans="1:20" ht="17">
       <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17">
+    <row r="15" spans="1:20" ht="17">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17">
+    <row r="16" spans="1:20" ht="17">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2263,10 +2279,12 @@
       <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:16" ht="17">
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F50FF1-5A21-7E4C-8568-E1EE225C0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73952116-CD3A-8D46-B5F9-99516319BB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,11 +393,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaskAction</t>
+    <t>SoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,28 +812,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="85" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
     <col min="14" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.1640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -893,7 +897,7 @@
         <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -909,6 +913,12 @@
       <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="34">
       <c r="B3" s="2" t="s">
@@ -1076,6 +1086,9 @@
       <c r="P9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="34">

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCE184-473A-E344-874B-23B2BB7A8829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34200BD2-CC68-DB4E-82C8-4C6BE13E88EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,12 +450,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -471,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,9 +482,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1542,10 +1533,10 @@
       <c r="E39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="P39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1559,8 +1550,6 @@
       <c r="E40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" ht="17">
       <c r="A41" s="2" t="s">
@@ -1587,8 +1576,6 @@
       <c r="I41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16" ht="34">
       <c r="B42" s="2" t="s">
@@ -1603,8 +1590,6 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16" ht="17">
       <c r="A43" s="2" t="s">
@@ -1625,8 +1610,6 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" ht="17">
       <c r="A44" s="2" t="s">
@@ -1647,8 +1630,6 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16" ht="17">
       <c r="A45" s="2" t="s">
@@ -1669,8 +1650,6 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" ht="17">
       <c r="A46" s="2" t="s">
@@ -1697,8 +1676,6 @@
       <c r="N46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16" ht="17">
       <c r="A47" s="2" t="s">
@@ -1721,8 +1698,6 @@
       <c r="I47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
     </row>
     <row r="48" spans="1:16" ht="34">
       <c r="A48" s="2" t="s">
@@ -1745,8 +1720,6 @@
       <c r="I48" s="4"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16" ht="17">
       <c r="A49" s="2" t="s">
@@ -1773,8 +1746,6 @@
       <c r="N49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16" ht="34">
       <c r="B50" s="2" t="s">
@@ -1786,8 +1757,6 @@
       <c r="E50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:16" ht="17">
       <c r="B51" s="2" t="s">
@@ -1799,8 +1768,6 @@
       <c r="E51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
     </row>
     <row r="52" spans="1:16" ht="34">
       <c r="B52" s="2" t="s">
@@ -1812,8 +1779,7 @@
       <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6" t="s">
+      <c r="P52" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34200BD2-CC68-DB4E-82C8-4C6BE13E88EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1203B89F-193E-E042-9A7C-404B63518AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,27 +376,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My Master appeared unconcerned and quickly stepped onto the bridge, leaving me no choice but to grit my teeth and follow.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Could this bridge really collapse? I thought to myself.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Who would have guessed that this casual remark was about to become a prophecy.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Cross the bridge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StoryScript2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My Master appeared unconcerned and quickly stepped onto the bridge, leaving me no choice but to grit my teeth and follow.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Could this bridge really collapse? I thought to myself.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Who would have guessed that this casual remark was about to become a prophecy.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterfall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -883,38 +883,38 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="7" spans="1:16" ht="34">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -1020,15 +1020,15 @@
         <v>500</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1042,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1081,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="16" spans="1:16" ht="34">
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>17</v>
@@ -1135,18 +1135,18 @@
         <v>-500</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1168,13 +1168,13 @@
     </row>
     <row r="20" spans="1:12" ht="17">
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>14</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>17</v>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="22" spans="1:12" ht="34">
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -1220,24 +1220,24 @@
     </row>
     <row r="23" spans="1:12" ht="34">
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17">
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17">
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17">
@@ -1280,13 +1280,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>11</v>
@@ -1349,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1372,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="31" spans="1:12" ht="17">
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
@@ -1413,35 +1413,35 @@
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="34">
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="17">
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="17">
@@ -1449,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>11</v>
@@ -1467,7 +1467,7 @@
         <v>-500</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="17">
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -1507,17 +1507,17 @@
         <v>11</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:16" ht="17">
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -1525,16 +1525,16 @@
     </row>
     <row r="39" spans="1:16" ht="34">
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>17</v>
@@ -1542,13 +1542,13 @@
     </row>
     <row r="40" spans="1:16" ht="34">
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="17">
@@ -1556,16 +1556,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>17</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="42" spans="1:16" ht="34">
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -1645,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -1665,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="M46" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>17</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1713,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -1726,16 +1726,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>14</v>
@@ -1749,35 +1749,35 @@
     </row>
     <row r="50" spans="1:16" ht="34">
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="17">
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="34">
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>14</v>
@@ -1785,16 +1785,13 @@
     </row>
     <row r="53" spans="1:16" ht="17">
       <c r="A53" s="2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1203B89F-193E-E042-9A7C-404B63518AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B1D27-7D26-7347-9240-5CB14ED268A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,22 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sir, wait a moment…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weren’t there supposed to be three famous sights? You only mentioned two…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Three named, two listed—that’s just one of those unwritten rules, isn’t it?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sir, how much farther is Qingliu Manor? It feels like we’ve been walking forever…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Almost there.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Almost there nine times today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In any case, I keep walking. Whether we reach it or not… that’s up to fate.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Really?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Qingliu Manor.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,18 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The Riverworks Estate of Gongjiang County.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It is a grand compound nestled in the upper reaches of the Gong River, embraced by towering slopes and cliffs. Locals simply call it Qingliu Manor.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Though sparsely populated, the upper Gong River is famed far and wide for its breathtaking mountain views.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Among its most celebrated sights are three scenic wonders—)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,59 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So really, how could we pass through Gongjiang County and not pay a visit to the famed Qingliu Manor?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I had been quietly listening this whole time, but now that the story seemed to be ending, I couldn’t help but interject.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(What’s the last one?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(That’s how Sir is. After all these years traveling with him, I’m fairly certain he just forgot what the third one was.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My Sir’s name is Judge Dee.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Before traveling to court, he served at the Court of Judicature and Revision)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Where he handled criminal cases with absolute fairness—over seventeen thousand verdicts in a single year, and not a single wrongful conviction.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(But alas, Sir is upright and uncompromising. )&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A few weeks ago, he offended Wu Sansi, the emperor’s favored consort's nephew, and was demoted to serve as magistrate of Pengyang County.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(On the way to his new post, Master proposed a detour to the Gong River to take in the famed lakes and mountains along the way.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And I—
-I'm his student and bodyguard.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao Chong, at your service.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He always sounds so confident. I sigh and lift my head—)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Through the thick foliage above, I glimpse a sliver of gray sky.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,22 +240,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I push aside the branches ahead of us, half in doubt. And see…)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(A worn wooden suspension bridge, swaying gently, stretching across a vast chasm—linking two cliffs some dozens of meters apart.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just beyond the suspension bridge, a mighty waterfall thundered down the cliffside, its roaring waters deafening to the ear.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I followed Master’s finger, and only then did I spot the faint outline of the manor walls, barely visible in the distant mist.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SoundEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,14 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My Master appeared unconcerned and quickly stepped onto the bridge, leaving me no choice but to grit my teeth and follow.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Could this bridge really collapse? I thought to myself.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Who would have guessed that this casual remark was about to become a prophecy.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +296,125 @@
   </si>
   <si>
     <t>StoryScript2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao had been quietly listening this whole time, but now that the story seemed to be ending, He couldn’t help but interject.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(That’s just how we are. After working together for so many years, he surely knows I forgot the third point—but he won’t call me out on it.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(My name is Judge Dee.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Before this traveling, I served at the Court of Judicature and Revision.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Where I handled criminal cases with absolute fairness—over seventeen thousand verdicts in a single year, and not a single wrongful conviction.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Almost there nine times today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, how much farther is Qingliu Manor? It feels like we’ve been walking forever......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao push aside the branches ahead of us, half in doubt.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He followed my finger, and only then spot the faint outline of the manor walls, barely visible in the distant mist.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weren’t there supposed to be three famous sights? You only mentioned two......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The Riverworks Estate of JiuJiang County.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It is a grand compound nestled in the upper reaches of the JiuJiang River, embraced by towering slopes and cliffs. Locals simply call it Qingliu Manor.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Though sparsely populated, the upper JiuJiang River is famed far and wide for its breathtaking mountain views.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So really, how could we pass through JiuJiang County and not pay a visit to the famed Qingliu Manor?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(A few weeks ago, I offended Chancellor Wu Sansi, the emperor’s favored consort's nephew, and was demoted to serve as magistrate of PengZe County.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;color=#00CC00&gt;(On the way to my new post, I proposed a detour to the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JiuJiang River</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take in the famed lakes and mountains along the way.)&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And Yao—my student, page and also my friend.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just beyond the bridge, a mighty waterfall thundered down the cliffside, its roaring waters deafening to the ear.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, wait a moment......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This bridge looks so rickety......it seems dangerous. Sir, do we really have to cross here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh heavens, I just hope the bridge doesn’t suddenly collapse while I’m on it......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at the terrain——this is the only way to the manor. Come on, let’s go!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, fine!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +437,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -818,17 +839,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="85" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
@@ -883,21 +904,21 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -906,12 +927,12 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -922,7 +943,7 @@
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -933,7 +954,7 @@
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
@@ -944,7 +965,7 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -955,7 +976,7 @@
     </row>
     <row r="7" spans="1:16" ht="34">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -966,7 +987,7 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -977,7 +998,7 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -988,7 +1009,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -1002,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1020,12 +1041,12 @@
         <v>500</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1042,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1053,16 +1074,21 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="17">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -1070,41 +1096,33 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="34">
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -1120,7 +1138,7 @@
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -1140,7 +1158,7 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1154,7 +1172,7 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1166,9 +1184,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="17">
+    <row r="20" spans="1:12" ht="34">
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1177,14 +1195,18 @@
         <v>24</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1193,18 +1215,14 @@
         <v>24</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="34">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="17">
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -1212,40 +1230,71 @@
       <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="34">
+    </row>
+    <row r="23" spans="1:12" ht="17">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1256,34 +1305,22 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
@@ -1300,13 +1337,13 @@
     </row>
     <row r="27" spans="1:12" ht="17">
       <c r="A27" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -1321,15 +1358,15 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="17">
+    <row r="28" spans="1:12" ht="34">
       <c r="A28" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
@@ -1337,62 +1374,42 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="17">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="34">
-      <c r="A30" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="17">
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -1400,132 +1417,143 @@
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="17">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="34">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:16" ht="17">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:16" ht="17">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="34">
+      <c r="B36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="34">
+      <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17">
+      <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H38" s="4">
         <v>-500</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" ht="17">
-      <c r="A37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" ht="17">
-      <c r="B38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>11</v>
+      <c r="I38" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="34">
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
@@ -1533,56 +1561,62 @@
       <c r="E39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="34">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="17">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:16" ht="17">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-500</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="34">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="17">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>27</v>
@@ -1593,13 +1627,13 @@
     </row>
     <row r="43" spans="1:16" ht="17">
       <c r="A43" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
@@ -1610,16 +1644,22 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
+      <c r="M43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="17">
       <c r="A44" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>4</v>
@@ -1630,16 +1670,18 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" ht="17">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" ht="34">
       <c r="A45" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>4</v>
@@ -1650,16 +1692,20 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="17">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>4</v>
@@ -1670,22 +1716,16 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="M46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="47" spans="1:16" ht="17">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4</v>
@@ -1696,15 +1736,13 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" ht="34">
+    </row>
+    <row r="48" spans="1:16" ht="17">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1718,18 +1756,16 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:16" ht="17">
       <c r="A49" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -1737,19 +1773,13 @@
       <c r="E49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="50" spans="1:16" ht="34">
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -1757,41 +1787,24 @@
       <c r="E50" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="P50" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:16" ht="17">
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="34">
-      <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17">
-      <c r="A53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B1D27-7D26-7347-9240-5CB14ED268A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66597B3A-C42F-6841-BCD9-20DEBF22215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
   <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The second is "Spring Songs in the Forked Valley.")&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Where the mountain path splits, birdsong echoes through the ravine. It's a treasured spot for listening to the chorus of spring.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +252,6 @@
   </si>
   <si>
     <t>Hmm… to get a better view of the river?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not quite. The real reason lies in the waterworks systems of the Tang Dynasty.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -415,6 +407,14 @@
   </si>
   <si>
     <t>OK, fine!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The second is Spring Songs in the Forked Valley.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not quite. The real reason lies in the &lt;color=#FFCC00&gt;waterworks systems&lt;/color&gt;.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -910,15 +910,15 @@
         <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="16" spans="1:16" ht="34">
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -1130,15 +1130,13 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -1158,7 +1156,7 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1172,7 +1170,7 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1186,7 +1184,7 @@
     </row>
     <row r="20" spans="1:12" ht="34">
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1206,7 +1204,7 @@
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1222,7 +1220,7 @@
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -1236,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1248,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -1294,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1387,7 +1385,7 @@
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -1398,7 +1396,7 @@
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
@@ -1409,7 +1407,7 @@
     </row>
     <row r="31" spans="1:12" ht="17">
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -1449,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
@@ -1488,7 +1486,7 @@
     </row>
     <row r="35" spans="1:16" ht="17">
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
@@ -1499,7 +1497,7 @@
     </row>
     <row r="36" spans="1:16" ht="34">
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -1508,7 +1506,7 @@
         <v>27</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>17</v>
@@ -1516,7 +1514,7 @@
     </row>
     <row r="37" spans="1:16" ht="34">
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -1553,7 +1551,7 @@
     </row>
     <row r="39" spans="1:16" ht="34">
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
@@ -1610,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1630,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -1656,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1678,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -1702,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>21</v>
@@ -1722,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -1742,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1762,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
@@ -1779,7 +1777,7 @@
     </row>
     <row r="50" spans="1:16" ht="34">
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -1798,13 +1796,13 @@
     </row>
     <row r="51" spans="1:16" ht="17">
       <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript.xlsx
+++ b/Assets/StreamingAssets/StoryScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66597B3A-C42F-6841-BCD9-20DEBF22215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DECB830-5E06-8F40-885C-A9DA45395FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{4FF494A4-B03B-D144-A30E-F081D1418406}"/>
   </bookViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E189AB-F231-6C46-8064-720ADE40C742}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
